--- a/variables.xlsx
+++ b/variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Image1</t>
   </si>
@@ -25,22 +25,7 @@
     <t>Image3</t>
   </si>
   <si>
-    <t>R1-09827-030A.JPG</t>
-  </si>
-  <si>
-    <t>R1-09827-029A.JPG</t>
-  </si>
-  <si>
-    <t>R1-09827-0026.JPG</t>
-  </si>
-  <si>
-    <t>R1-09827-0027.JPG</t>
-  </si>
-  <si>
-    <t>R1-09827-0033.JPG</t>
-  </si>
-  <si>
-    <t>R1-09827-0025.JPG</t>
+    <t>Example.png</t>
   </si>
 </sst>
 </file>
@@ -372,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,61 +385,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
